--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Npy-Fap.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Npy-Fap.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.926322666666667</v>
+        <v>0.8200883333333334</v>
       </c>
       <c r="H2">
-        <v>23.778968</v>
+        <v>2.460265</v>
       </c>
       <c r="I2">
-        <v>0.7593601911550306</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="J2">
-        <v>0.7593601911550305</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.085853</v>
+        <v>2.479667666666667</v>
       </c>
       <c r="N2">
-        <v>9.257559000000001</v>
+        <v>7.439003</v>
       </c>
       <c r="O2">
-        <v>0.03753485169351894</v>
+        <v>0.02877351812554147</v>
       </c>
       <c r="P2">
-        <v>0.03753485169351894</v>
+        <v>0.02877351812554146</v>
       </c>
       <c r="Q2">
-        <v>24.45946657990133</v>
+        <v>2.033546523977222</v>
       </c>
       <c r="R2">
-        <v>220.135199219112</v>
+        <v>18.301918715795</v>
       </c>
       <c r="S2">
-        <v>0.02850247215696626</v>
+        <v>0.006920368746025291</v>
       </c>
       <c r="T2">
-        <v>0.02850247215696627</v>
+        <v>0.00692036874602529</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.926322666666667</v>
+        <v>0.8200883333333334</v>
       </c>
       <c r="H3">
-        <v>23.778968</v>
+        <v>2.460265</v>
       </c>
       <c r="I3">
-        <v>0.7593601911550306</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="J3">
-        <v>0.7593601911550305</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>220.199944</v>
       </c>
       <c r="O3">
-        <v>0.8928025455696448</v>
+        <v>0.8517172368296149</v>
       </c>
       <c r="P3">
-        <v>0.8928025455696449</v>
+        <v>0.8517172368296148</v>
       </c>
       <c r="Q3">
-        <v>581.7919357753102</v>
+        <v>60.19446835835112</v>
       </c>
       <c r="R3">
-        <v>5236.127421977792</v>
+        <v>541.75021522516</v>
       </c>
       <c r="S3">
-        <v>0.6779587116674634</v>
+        <v>0.2048479897553636</v>
       </c>
       <c r="T3">
-        <v>0.6779587116674634</v>
+        <v>0.2048479897553636</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.926322666666667</v>
+        <v>0.8200883333333334</v>
       </c>
       <c r="H4">
-        <v>23.778968</v>
+        <v>2.460265</v>
       </c>
       <c r="I4">
-        <v>0.7593601911550306</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="J4">
-        <v>0.7593601911550305</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6102596666666668</v>
+        <v>3.497944666666667</v>
       </c>
       <c r="N4">
-        <v>1.830779</v>
+        <v>10.493834</v>
       </c>
       <c r="O4">
-        <v>0.007422909024788166</v>
+        <v>0.0405893804324885</v>
       </c>
       <c r="P4">
-        <v>0.007422909024788168</v>
+        <v>0.0405893804324885</v>
       </c>
       <c r="Q4">
-        <v>4.837115028452446</v>
+        <v>2.868623611778889</v>
       </c>
       <c r="R4">
-        <v>43.534035256072</v>
+        <v>25.81761250601</v>
       </c>
       <c r="S4">
-        <v>0.005636661615989544</v>
+        <v>0.00976222228161187</v>
       </c>
       <c r="T4">
-        <v>0.005636661615989544</v>
+        <v>0.00976222228161187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.926322666666667</v>
+        <v>0.8200883333333334</v>
       </c>
       <c r="H5">
-        <v>23.778968</v>
+        <v>2.460265</v>
       </c>
       <c r="I5">
-        <v>0.7593601911550306</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="J5">
-        <v>0.7593601911550305</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.005693333333333</v>
+        <v>5.285651</v>
       </c>
       <c r="N5">
-        <v>12.01708</v>
+        <v>15.856953</v>
       </c>
       <c r="O5">
-        <v>0.04872335305550335</v>
+        <v>0.06133353146400924</v>
       </c>
       <c r="P5">
-        <v>0.04872335305550336</v>
+        <v>0.06133353146400923</v>
       </c>
       <c r="Q5">
-        <v>31.75041786371555</v>
+        <v>4.334700719171667</v>
       </c>
       <c r="R5">
-        <v>285.75376077344</v>
+        <v>39.012306472545</v>
       </c>
       <c r="S5">
-        <v>0.03699857468994107</v>
+        <v>0.01475143402259576</v>
       </c>
       <c r="T5">
-        <v>0.03699857468994108</v>
+        <v>0.01475143402259576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.926322666666667</v>
+        <v>0.8200883333333334</v>
       </c>
       <c r="H6">
-        <v>23.778968</v>
+        <v>2.460265</v>
       </c>
       <c r="I6">
-        <v>0.7593601911550306</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="J6">
-        <v>0.7593601911550305</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.111219</v>
+        <v>1.515569333333333</v>
       </c>
       <c r="N6">
-        <v>3.333657</v>
+        <v>4.546708</v>
       </c>
       <c r="O6">
-        <v>0.0135163406565447</v>
+        <v>0.01758633314834587</v>
       </c>
       <c r="P6">
-        <v>0.0135163406565447</v>
+        <v>0.01758633314834587</v>
       </c>
       <c r="Q6">
-        <v>8.807880347330666</v>
+        <v>1.242900728624445</v>
       </c>
       <c r="R6">
-        <v>79.270923125976</v>
+        <v>11.18610655762</v>
       </c>
       <c r="S6">
-        <v>0.01026377102467029</v>
+        <v>0.004229719485326616</v>
       </c>
       <c r="T6">
-        <v>0.01026377102467029</v>
+        <v>0.004229719485326616</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>2.511836666666667</v>
+        <v>2.589676</v>
       </c>
       <c r="H7">
-        <v>7.53551</v>
+        <v>7.769028</v>
       </c>
       <c r="I7">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="J7">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.085853</v>
+        <v>2.479667666666667</v>
       </c>
       <c r="N7">
-        <v>9.257559000000001</v>
+        <v>7.439003</v>
       </c>
       <c r="O7">
-        <v>0.03753485169351894</v>
+        <v>0.02877351812554147</v>
       </c>
       <c r="P7">
-        <v>0.03753485169351894</v>
+        <v>0.02877351812554146</v>
       </c>
       <c r="Q7">
-        <v>7.751158713343335</v>
+        <v>6.421535844342666</v>
       </c>
       <c r="R7">
-        <v>69.76042842009001</v>
+        <v>57.793822599084</v>
       </c>
       <c r="S7">
-        <v>0.009032379536552674</v>
+        <v>0.02185314937951617</v>
       </c>
       <c r="T7">
-        <v>0.009032379536552676</v>
+        <v>0.02185314937951617</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>2.511836666666667</v>
+        <v>2.589676</v>
       </c>
       <c r="H8">
-        <v>7.53551</v>
+        <v>7.769028</v>
       </c>
       <c r="I8">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="J8">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>220.199944</v>
       </c>
       <c r="O8">
-        <v>0.8928025455696448</v>
+        <v>0.8517172368296149</v>
       </c>
       <c r="P8">
-        <v>0.8928025455696449</v>
+        <v>0.8517172368296148</v>
       </c>
       <c r="Q8">
-        <v>184.3687644457156</v>
+        <v>190.0821700593813</v>
       </c>
       <c r="R8">
-        <v>1659.31888001144</v>
+        <v>1710.739530534432</v>
       </c>
       <c r="S8">
-        <v>0.2148438339021814</v>
+        <v>0.6468692470742512</v>
       </c>
       <c r="T8">
-        <v>0.2148438339021814</v>
+        <v>0.6468692470742511</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>2.511836666666667</v>
+        <v>2.589676</v>
       </c>
       <c r="H9">
-        <v>7.53551</v>
+        <v>7.769028</v>
       </c>
       <c r="I9">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="J9">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6102596666666668</v>
+        <v>3.497944666666667</v>
       </c>
       <c r="N9">
-        <v>1.830779</v>
+        <v>10.493834</v>
       </c>
       <c r="O9">
-        <v>0.007422909024788166</v>
+        <v>0.0405893804324885</v>
       </c>
       <c r="P9">
-        <v>0.007422909024788168</v>
+        <v>0.0405893804324885</v>
       </c>
       <c r="Q9">
-        <v>1.532872606921112</v>
+        <v>9.058543352594667</v>
       </c>
       <c r="R9">
-        <v>13.79585346229</v>
+        <v>81.52689017335199</v>
       </c>
       <c r="S9">
-        <v>0.001786247408798623</v>
+        <v>0.03082715815087663</v>
       </c>
       <c r="T9">
-        <v>0.001786247408798623</v>
+        <v>0.03082715815087663</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>2.511836666666667</v>
+        <v>2.589676</v>
       </c>
       <c r="H10">
-        <v>7.53551</v>
+        <v>7.769028</v>
       </c>
       <c r="I10">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="J10">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.005693333333333</v>
+        <v>5.285651</v>
       </c>
       <c r="N10">
-        <v>12.01708</v>
+        <v>15.856953</v>
       </c>
       <c r="O10">
-        <v>0.04872335305550335</v>
+        <v>0.06133353146400924</v>
       </c>
       <c r="P10">
-        <v>0.04872335305550336</v>
+        <v>0.06133353146400923</v>
       </c>
       <c r="Q10">
-        <v>10.06164739008889</v>
+        <v>13.688123539076</v>
       </c>
       <c r="R10">
-        <v>90.5548265108</v>
+        <v>123.193111851684</v>
       </c>
       <c r="S10">
-        <v>0.01172477836556228</v>
+        <v>0.04658209744141347</v>
       </c>
       <c r="T10">
-        <v>0.01172477836556229</v>
+        <v>0.04658209744141346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2.511836666666667</v>
+        <v>2.589676</v>
       </c>
       <c r="H11">
-        <v>7.53551</v>
+        <v>7.769028</v>
       </c>
       <c r="I11">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="J11">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.111219</v>
+        <v>1.515569333333333</v>
       </c>
       <c r="N11">
-        <v>3.333657</v>
+        <v>4.546708</v>
       </c>
       <c r="O11">
-        <v>0.0135163406565447</v>
+        <v>0.01758633314834587</v>
       </c>
       <c r="P11">
-        <v>0.0135163406565447</v>
+        <v>0.01758633314834587</v>
       </c>
       <c r="Q11">
-        <v>2.791200628896667</v>
+        <v>3.924833528869333</v>
       </c>
       <c r="R11">
-        <v>25.12080566007</v>
+        <v>35.323501759824</v>
       </c>
       <c r="S11">
-        <v>0.003252569631874404</v>
+        <v>0.01335661366301926</v>
       </c>
       <c r="T11">
-        <v>0.003252569631874405</v>
+        <v>0.01335661366301925</v>
       </c>
     </row>
   </sheetData>
